--- a/Data/hasildate.xlsx
+++ b/Data/hasildate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,6 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>menangani_kalimat2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>date_final</t>
         </is>
       </c>
@@ -491,11 +486,6 @@
           <t>Tidak ada tanggal</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Tidak ada tanggal</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,11 +513,6 @@
           <t>25-03-2025</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>25-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -555,11 +540,6 @@
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>30-04-2025</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -587,11 +567,6 @@
           <t>Tidak ada tanggal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tidak ada tanggal</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -619,11 +594,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -651,11 +621,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -683,11 +648,6 @@
           <t>03-01-2025</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>03-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -715,11 +675,6 @@
           <t>12-02-2025</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>12-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -747,11 +702,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -779,11 +729,6 @@
           <t>17-03-2025</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>17-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -811,11 +756,6 @@
           <t>02-05-2025</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>02-05-2025</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -843,11 +783,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -875,11 +810,6 @@
           <t>31-03-2025</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>31-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -907,11 +837,6 @@
           <t>25-03-2025</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>25-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -939,11 +864,6 @@
           <t>20-04-2025</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>20-04-2025</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -971,11 +891,6 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>28-04-2025</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1003,11 +918,6 @@
           <t>24-04-2025</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>24-04-2025</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1035,11 +945,6 @@
           <t>02-12-2020</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>02-12-2020</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1067,11 +972,6 @@
           <t>24-01-2025</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>24-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1099,11 +999,6 @@
           <t>14-01-2025</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>14-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1131,11 +1026,6 @@
           <t>22-01-2025</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>22-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1163,11 +1053,6 @@
           <t>31-01-2025</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>31-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1195,11 +1080,6 @@
           <t>22-01-2025</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>22-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1227,11 +1107,6 @@
           <t>08-04-2025</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>08-04-2025</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1259,11 +1134,6 @@
           <t>27-02-2025</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>27-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1291,11 +1161,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1323,11 +1188,6 @@
           <t>18-03-2025</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>18-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1355,11 +1215,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1387,11 +1242,6 @@
           <t>19-03-2025</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>19-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1419,11 +1269,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1451,11 +1296,6 @@
           <t>Tidak ada tanggal</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Tidak ada tanggal</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1483,11 +1323,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1515,11 +1350,6 @@
           <t>06-01-2025</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>06-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1547,11 +1377,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1579,11 +1404,6 @@
           <t>Tidak ada tanggal</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Tidak ada tanggal</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1611,11 +1431,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1643,11 +1458,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1675,11 +1485,6 @@
           <t>Tidak ada tanggal</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Tidak ada tanggal</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1707,11 +1512,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1739,11 +1539,6 @@
           <t>02-04-2025</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>02-04-2025</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1771,11 +1566,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1803,11 +1593,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1835,11 +1620,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1867,11 +1647,6 @@
           <t>28-02-2025</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>28-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1899,11 +1674,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1931,11 +1701,6 @@
           <t>17-01-2025</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>17-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1963,11 +1728,6 @@
           <t>05-02-2025</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>05-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1995,11 +1755,6 @@
           <t>18-02-2025</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>18-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2027,11 +1782,6 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>01-04-2025</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2059,11 +1809,6 @@
           <t>27-03-2025</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>27-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2091,11 +1836,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2123,11 +1863,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2155,11 +1890,6 @@
           <t>31-01-2025</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>31-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2187,11 +1917,6 @@
           <t>14-10-2024</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>14-10-2024</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2219,11 +1944,6 @@
           <t>18-03-2025</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>18-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2251,11 +1971,6 @@
           <t>04-02-2025</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>04-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2283,11 +1998,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2315,11 +2025,6 @@
           <t>22-01-2025</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>22-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2347,11 +2052,6 @@
           <t>Tidak ada tanggal</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Tidak ada tanggal</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2379,11 +2079,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2411,11 +2106,6 @@
           <t>Tidak ada tanggal</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Tidak ada tanggal</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2443,11 +2133,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2475,11 +2160,6 @@
           <t>03-02-2025</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>03-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2507,11 +2187,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2539,11 +2214,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2571,11 +2241,6 @@
           <t>30-01-2025</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>30-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2603,11 +2268,6 @@
           <t>10-02-2025</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>10-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2635,11 +2295,6 @@
           <t>03-04-2025</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>03-04-2025</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2664,11 +2319,6 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1737084938000</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -2696,11 +2346,6 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1736787655000</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -2728,11 +2373,6 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1737261181000</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -2760,11 +2400,6 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1737467202000</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -2792,11 +2427,6 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1737128172000</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -2824,11 +2454,6 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1728062182000</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -2856,11 +2481,6 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1736514410000</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -2888,11 +2508,6 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1736593557000</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -2920,11 +2535,6 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1744179294000</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -2952,11 +2562,6 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1737099132000</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -2987,11 +2592,6 @@
           <t>Tidak ada tanggal</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Tidak ada tanggal</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3019,11 +2619,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3051,11 +2646,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3083,11 +2673,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3115,11 +2700,6 @@
           <t>31-01-2025</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>31-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3147,11 +2727,6 @@
           <t>04-09-2025</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>04-09-2025</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3179,11 +2754,6 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>01-04-2025</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3211,11 +2781,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3243,11 +2808,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3275,11 +2835,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3307,11 +2862,6 @@
           <t>04-09-2025</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>04-09-2025</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3339,11 +2889,6 @@
           <t>15-01-2025</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>15-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3371,11 +2916,6 @@
           <t>06-05-2025</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>06-05-2025</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3403,11 +2943,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3435,11 +2970,6 @@
           <t>24-01-2025</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>24-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3467,11 +2997,6 @@
           <t>19-02-2025</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>19-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3499,11 +3024,6 @@
           <t>27-01-2025</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>27-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3531,11 +3051,6 @@
           <t>12-02-2025</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>12-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3563,11 +3078,6 @@
           <t>19-01-2025</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>19-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3595,11 +3105,6 @@
           <t>02-02-2025</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>02-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3627,11 +3132,6 @@
           <t>06-05-2025</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>06-05-2025</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3659,11 +3159,6 @@
           <t>15-03-2025</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>15-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3691,11 +3186,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3723,11 +3213,6 @@
           <t>21-11-2024</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>21-11-2024</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3752,11 +3237,6 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ilustrasi logo Danantara. Foto: dok Danantara.</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -3784,11 +3264,6 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ketua Dewan Ekonomi Nasional Luhut Binsar Pandjaitan. Foto: MI/Susanto</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -3816,11 +3291,6 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ketua Dewan Ekonomi Nasional (DEN) Luhut Pandjaitan. Foto: dok MI/Agung Wibowo.</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -3848,11 +3318,6 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ilustrasi. Medcom.id.</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -3883,11 +3348,6 @@
           <t>25-01-2025</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>25-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3915,11 +3375,6 @@
           <t>23-01-2025</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>23-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3947,11 +3402,6 @@
           <t>03-02-2025</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>03-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3979,11 +3429,6 @@
           <t>Tidak ada tanggal</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Tidak ada tanggal</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4011,11 +3456,6 @@
           <t>Tidak ada tanggal</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Tidak ada tanggal</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4043,11 +3483,6 @@
           <t>Tidak ada tanggal</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Tidak ada tanggal</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4075,11 +3510,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4107,11 +3537,6 @@
           <t>Tidak ada tanggal</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Tidak ada tanggal</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4139,11 +3564,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4171,11 +3591,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4203,11 +3618,6 @@
           <t>31-01-2025</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>31-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4231,11 +3641,6 @@
         </is>
       </c>
       <c r="E119" t="inlineStr">
-        <is>
-          <t>09-04-2025</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
         <is>
           <t>09-04-2025</t>
         </is>
@@ -4273,11 +3678,6 @@
           <t>20-03-2025</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>20-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4311,11 +3711,6 @@
           <t>08-04-2025</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>08-04-2025</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4346,11 +3741,6 @@
           <t>26-02-2025</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>26-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4378,11 +3768,6 @@
           <t>12-03-2025</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>12-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4410,11 +3795,6 @@
           <t>13-03-2025</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>13-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4442,11 +3822,6 @@
           <t>29-01-2025</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>29-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4474,11 +3849,6 @@
           <t>28-02-2025</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>28-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4506,11 +3876,6 @@
           <t>21-01-2025</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>21-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4538,11 +3903,6 @@
           <t>13-02-2025</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>13-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4570,11 +3930,6 @@
           <t>10-02-2024</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>10-02-2024</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4602,11 +3957,6 @@
           <t>02-01-2024</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>02-01-2024</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4634,11 +3984,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4666,11 +4011,6 @@
           <t>17-03-2025</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>17-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4698,11 +4038,6 @@
           <t>12-01-2025</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>12-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4730,11 +4065,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4762,11 +4092,6 @@
           <t>11-01-2025</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>11-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4794,11 +4119,6 @@
           <t>17-03-2025</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>17-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4826,11 +4146,6 @@
           <t>23-01-2025</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>23-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4858,11 +4173,6 @@
           <t>11-02-2025</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>11-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4890,11 +4200,6 @@
           <t>05-03-2025</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>05-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4922,11 +4227,6 @@
           <t>21-01-2025</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>21-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4946,17 +4246,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>07-06-2025</t>
+          <t>20-06-2025</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>07-06-2025</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>07-06-2025</t>
+          <t>20-06-2025</t>
         </is>
       </c>
     </row>
@@ -4986,11 +4281,6 @@
           <t>06-05-2025</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>06-05-2025</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5018,11 +4308,6 @@
           <t>27-02-2025</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>27-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5050,11 +4335,6 @@
           <t>27-02-2025</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>27-02-2025</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5082,11 +4362,6 @@
           <t>08-04-2025</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>08-04-2025</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5114,11 +4389,6 @@
           <t>22-01-2025</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>22-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5143,11 +4413,6 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Senin, 24 Februari 2025 | 15:45 WIB</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
           <t>Tidak ada tanggal</t>
         </is>
       </c>
@@ -5178,11 +4443,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5210,11 +4470,6 @@
           <t>09-01-2025</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>09-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5242,11 +4497,6 @@
           <t>08-01-2025</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>08-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5274,11 +4524,6 @@
           <t>01-01-2025</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>01-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5306,11 +4551,6 @@
           <t>22-03-2025</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>22-03-2025</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5338,11 +4578,6 @@
           <t>17-01-2025</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>17-01-2025</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5370,11 +4605,6 @@
           <t>24-04-2025</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>24-04-2025</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5398,11 +4628,6 @@
         </is>
       </c>
       <c r="E155" t="inlineStr">
-        <is>
-          <t>25-03-2025</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
         <is>
           <t>25-03-2025</t>
         </is>

--- a/Data/hasildate.xlsx
+++ b/Data/hasildate.xlsx
@@ -3124,12 +3124,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>06-05-2025</t>
+          <t>06-06-2025</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>06-05-2025</t>
+          <t>06-06-2025</t>
         </is>
       </c>
     </row>
